--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/56/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/56/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>2.10802</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>2108.02</v>
       </c>
     </row>
     <row r="5">
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>2.24</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>4.25282</v>
+        <v>2.29215</v>
       </c>
       <c r="C6" t="n">
-        <v>4252.82</v>
+        <v>2292.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.154946</v>
       </c>
       <c r="B7" t="n">
-        <v>4.66174</v>
+        <v>2.31568</v>
       </c>
       <c r="C7" t="n">
-        <v>4661.74</v>
+        <v>2315.68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.185922</v>
       </c>
       <c r="B8" t="n">
-        <v>5.05807</v>
+        <v>2.3335</v>
       </c>
       <c r="C8" t="n">
-        <v>5058.07</v>
+        <v>2333.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216899</v>
       </c>
       <c r="B9" t="n">
-        <v>5.422</v>
+        <v>2.34978</v>
       </c>
       <c r="C9" t="n">
-        <v>5422</v>
+        <v>2349.78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247929</v>
+        <v>0.247875</v>
       </c>
       <c r="B10" t="n">
-        <v>5.71819</v>
+        <v>2.36548</v>
       </c>
       <c r="C10" t="n">
-        <v>5718.19</v>
+        <v>2365.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278854</v>
+        <v>0.278804</v>
       </c>
       <c r="B11" t="n">
-        <v>6.02217</v>
+        <v>2.37941</v>
       </c>
       <c r="C11" t="n">
-        <v>6022.17</v>
+        <v>2379.41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309838</v>
+        <v>0.309729</v>
       </c>
       <c r="B12" t="n">
-        <v>6.252</v>
+        <v>2.3925</v>
       </c>
       <c r="C12" t="n">
-        <v>6252</v>
+        <v>2392.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340758</v>
+        <v>0.340654</v>
       </c>
       <c r="B13" t="n">
-        <v>6.451000000000001</v>
+        <v>2.4055</v>
       </c>
       <c r="C13" t="n">
-        <v>6451</v>
+        <v>2405.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371683</v>
+        <v>0.371579</v>
       </c>
       <c r="B14" t="n">
-        <v>6.631340000000001</v>
+        <v>2.41734</v>
       </c>
       <c r="C14" t="n">
-        <v>6631.34</v>
+        <v>2417.34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402609</v>
+        <v>0.402504</v>
       </c>
       <c r="B15" t="n">
-        <v>6.81736</v>
+        <v>2.42856</v>
       </c>
       <c r="C15" t="n">
-        <v>6817.36</v>
+        <v>2428.56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433534</v>
+        <v>0.433429</v>
       </c>
       <c r="B16" t="n">
-        <v>6.97996</v>
+        <v>2.43916</v>
       </c>
       <c r="C16" t="n">
-        <v>6979.96</v>
+        <v>2439.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464459</v>
+        <v>0.46435</v>
       </c>
       <c r="B17" t="n">
-        <v>7.10717</v>
+        <v>2.4495</v>
       </c>
       <c r="C17" t="n">
-        <v>7107.17</v>
+        <v>2449.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495384</v>
+        <v>0.495275</v>
       </c>
       <c r="B18" t="n">
-        <v>7.22417</v>
+        <v>2.45956</v>
       </c>
       <c r="C18" t="n">
-        <v>7224.17</v>
+        <v>2459.56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526309</v>
+        <v>0.5262</v>
       </c>
       <c r="B19" t="n">
-        <v>7.34238</v>
+        <v>2.46887</v>
       </c>
       <c r="C19" t="n">
-        <v>7342.38</v>
+        <v>2468.87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557234</v>
+        <v>0.557125</v>
       </c>
       <c r="B20" t="n">
-        <v>7.43066</v>
+        <v>2.47805</v>
       </c>
       <c r="C20" t="n">
-        <v>7430.66</v>
+        <v>2478.05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588159</v>
+        <v>0.58805</v>
       </c>
       <c r="B21" t="n">
-        <v>7.50621</v>
+        <v>2.48686</v>
       </c>
       <c r="C21" t="n">
-        <v>7506.21</v>
+        <v>2486.86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619201</v>
+        <v>0.619092</v>
       </c>
       <c r="B22" t="n">
-        <v>7.56453</v>
+        <v>2.49542</v>
       </c>
       <c r="C22" t="n">
-        <v>7564.53</v>
+        <v>2495.42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650373</v>
+        <v>0.650269</v>
       </c>
       <c r="B23" t="n">
-        <v>7.61174</v>
+        <v>2.50369</v>
       </c>
       <c r="C23" t="n">
-        <v>7611.74</v>
+        <v>2503.69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68155</v>
+        <v>0.681441</v>
       </c>
       <c r="B24" t="n">
-        <v>7.64816</v>
+        <v>2.51178</v>
       </c>
       <c r="C24" t="n">
-        <v>7648.16</v>
+        <v>2511.78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712723</v>
+        <v>0.712614</v>
       </c>
       <c r="B25" t="n">
-        <v>7.670470000000001</v>
+        <v>2.51954</v>
       </c>
       <c r="C25" t="n">
-        <v>7670.47</v>
+        <v>2519.54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743895</v>
+        <v>0.743791</v>
       </c>
       <c r="B26" t="n">
-        <v>7.68243</v>
+        <v>2.52712</v>
       </c>
       <c r="C26" t="n">
-        <v>7682.43</v>
+        <v>2527.12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775072</v>
+        <v>0.774964</v>
       </c>
       <c r="B27" t="n">
-        <v>7.68819</v>
+        <v>2.53447</v>
       </c>
       <c r="C27" t="n">
-        <v>7688.19</v>
+        <v>2534.47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806245</v>
+        <v>0.806136</v>
       </c>
       <c r="B28" t="n">
-        <v>7.68936</v>
+        <v>2.54163</v>
       </c>
       <c r="C28" t="n">
-        <v>7689.36</v>
+        <v>2541.63</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837422</v>
+        <v>0.837313</v>
       </c>
       <c r="B29" t="n">
-        <v>7.68683</v>
+        <v>2.5486</v>
       </c>
       <c r="C29" t="n">
-        <v>7686.83</v>
+        <v>2548.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868595</v>
+        <v>0.868486</v>
       </c>
       <c r="B30" t="n">
-        <v>7.681760000000001</v>
+        <v>2.55537</v>
       </c>
       <c r="C30" t="n">
-        <v>7681.76</v>
+        <v>2555.37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899767</v>
+        <v>0.899658</v>
       </c>
       <c r="B31" t="n">
-        <v>7.67492</v>
+        <v>2.56196</v>
       </c>
       <c r="C31" t="n">
-        <v>7674.92</v>
+        <v>2561.96</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930944</v>
+        <v>0.930835</v>
       </c>
       <c r="B32" t="n">
-        <v>7.66669</v>
+        <v>2.5684</v>
       </c>
       <c r="C32" t="n">
-        <v>7666.69</v>
+        <v>2568.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962117</v>
+        <v>0.962008</v>
       </c>
       <c r="B33" t="n">
-        <v>7.65734</v>
+        <v>2.5747</v>
       </c>
       <c r="C33" t="n">
-        <v>7657.34</v>
+        <v>2574.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993289</v>
+        <v>0.993185</v>
       </c>
       <c r="B34" t="n">
-        <v>7.64699</v>
+        <v>2.58084</v>
       </c>
       <c r="C34" t="n">
-        <v>7646.99</v>
+        <v>2580.84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02431</v>
+        <v>1.02449</v>
       </c>
       <c r="B35" t="n">
-        <v>7.63572</v>
+        <v>2.58683</v>
       </c>
       <c r="C35" t="n">
-        <v>7635.72</v>
+        <v>2586.83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05528</v>
+        <v>1.05586</v>
       </c>
       <c r="B36" t="n">
-        <v>7.62366</v>
+        <v>2.59268</v>
       </c>
       <c r="C36" t="n">
-        <v>7623.66</v>
+        <v>2592.68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08624</v>
+        <v>1.08725</v>
       </c>
       <c r="B37" t="n">
-        <v>7.61074</v>
+        <v>2.59841</v>
       </c>
       <c r="C37" t="n">
-        <v>7610.74</v>
+        <v>2598.41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11721</v>
+        <v>1.11863</v>
       </c>
       <c r="B38" t="n">
-        <v>7.59705</v>
+        <v>2.60401</v>
       </c>
       <c r="C38" t="n">
-        <v>7597.05</v>
+        <v>2604.01</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14818</v>
+        <v>1.15001</v>
       </c>
       <c r="B39" t="n">
-        <v>7.58253</v>
+        <v>2.6095</v>
       </c>
       <c r="C39" t="n">
-        <v>7582.53</v>
+        <v>2609.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17915</v>
+        <v>1.18139</v>
       </c>
       <c r="B40" t="n">
-        <v>7.56718</v>
+        <v>2.61486</v>
       </c>
       <c r="C40" t="n">
-        <v>7567.18</v>
+        <v>2614.86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21012</v>
+        <v>1.21277</v>
       </c>
       <c r="B41" t="n">
-        <v>7.55096</v>
+        <v>2.62011</v>
       </c>
       <c r="C41" t="n">
-        <v>7550.96</v>
+        <v>2620.11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24108</v>
+        <v>1.24415</v>
       </c>
       <c r="B42" t="n">
-        <v>7.5337</v>
+        <v>2.62526</v>
       </c>
       <c r="C42" t="n">
-        <v>7533.7</v>
+        <v>2625.26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27205</v>
+        <v>1.27553</v>
       </c>
       <c r="B43" t="n">
-        <v>7.51519</v>
+        <v>2.6303</v>
       </c>
       <c r="C43" t="n">
-        <v>7515.19</v>
+        <v>2630.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30302</v>
+        <v>1.30691</v>
       </c>
       <c r="B44" t="n">
-        <v>7.4957</v>
+        <v>2.63524</v>
       </c>
       <c r="C44" t="n">
-        <v>7495.7</v>
+        <v>2635.24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33398</v>
+        <v>1.33829</v>
       </c>
       <c r="B45" t="n">
-        <v>7.47526</v>
+        <v>2.64008</v>
       </c>
       <c r="C45" t="n">
-        <v>7475.26</v>
+        <v>2640.08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36495</v>
+        <v>1.36967</v>
       </c>
       <c r="B46" t="n">
-        <v>7.45399</v>
+        <v>2.64482</v>
       </c>
       <c r="C46" t="n">
-        <v>7453.99</v>
+        <v>2644.82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39592</v>
+        <v>1.40105</v>
       </c>
       <c r="B47" t="n">
-        <v>7.43187</v>
+        <v>2.64948</v>
       </c>
       <c r="C47" t="n">
-        <v>7431.87</v>
+        <v>2649.48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42689</v>
+        <v>1.43244</v>
       </c>
       <c r="B48" t="n">
-        <v>7.4088</v>
+        <v>2.65405</v>
       </c>
       <c r="C48" t="n">
-        <v>7408.8</v>
+        <v>2654.05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45786</v>
+        <v>1.46381</v>
       </c>
       <c r="B49" t="n">
-        <v>7.38475</v>
+        <v>2.65853</v>
       </c>
       <c r="C49" t="n">
-        <v>7384.75</v>
+        <v>2658.53</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48882</v>
+        <v>1.49519</v>
       </c>
       <c r="B50" t="n">
-        <v>7.35951</v>
+        <v>2.66294</v>
       </c>
       <c r="C50" t="n">
-        <v>7359.51</v>
+        <v>2662.94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51979</v>
+        <v>1.52658</v>
       </c>
       <c r="B51" t="n">
-        <v>7.33291</v>
+        <v>2.66726</v>
       </c>
       <c r="C51" t="n">
-        <v>7332.91</v>
+        <v>2667.26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55076</v>
+        <v>1.55796</v>
       </c>
       <c r="B52" t="n">
-        <v>7.304930000000001</v>
+        <v>2.67149</v>
       </c>
       <c r="C52" t="n">
-        <v>7304.93</v>
+        <v>2671.49</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58173</v>
+        <v>1.58933</v>
       </c>
       <c r="B53" t="n">
-        <v>7.27569</v>
+        <v>2.67564</v>
       </c>
       <c r="C53" t="n">
-        <v>7275.69</v>
+        <v>2675.64</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.6127</v>
+        <v>1.62072</v>
       </c>
       <c r="B54" t="n">
-        <v>7.24512</v>
+        <v>2.67971</v>
       </c>
       <c r="C54" t="n">
-        <v>7245.12</v>
+        <v>2679.71</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64366</v>
+        <v>1.6521</v>
       </c>
       <c r="B55" t="n">
-        <v>7.21314</v>
+        <v>2.68371</v>
       </c>
       <c r="C55" t="n">
-        <v>7213.14</v>
+        <v>2683.71</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67463</v>
+        <v>1.68348</v>
       </c>
       <c r="B56" t="n">
-        <v>7.17975</v>
+        <v>2.68763</v>
       </c>
       <c r="C56" t="n">
-        <v>7179.75</v>
+        <v>2687.63</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70551</v>
+        <v>1.71486</v>
       </c>
       <c r="B57" t="n">
-        <v>7.14511</v>
+        <v>2.6915</v>
       </c>
       <c r="C57" t="n">
-        <v>7145.11</v>
+        <v>2691.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.7366</v>
+        <v>1.74593</v>
       </c>
       <c r="B58" t="n">
-        <v>7.10879</v>
+        <v>2.69528</v>
       </c>
       <c r="C58" t="n">
-        <v>7108.79</v>
+        <v>2695.28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76751</v>
+        <v>1.7769</v>
       </c>
       <c r="B59" t="n">
-        <v>7.07113</v>
+        <v>2.69899</v>
       </c>
       <c r="C59" t="n">
-        <v>7071.13</v>
+        <v>2698.99</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79863</v>
+        <v>1.80787</v>
       </c>
       <c r="B60" t="n">
-        <v>7.03165</v>
+        <v>2.70264</v>
       </c>
       <c r="C60" t="n">
-        <v>7031.65</v>
+        <v>2702.64</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82949</v>
+        <v>1.83883</v>
       </c>
       <c r="B61" t="n">
-        <v>6.99073</v>
+        <v>2.70622</v>
       </c>
       <c r="C61" t="n">
-        <v>6990.73</v>
+        <v>2706.22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86061</v>
+        <v>1.8698</v>
       </c>
       <c r="B62" t="n">
-        <v>6.94769</v>
+        <v>2.70972</v>
       </c>
       <c r="C62" t="n">
-        <v>6947.69</v>
+        <v>2709.72</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.8914</v>
+        <v>1.90077</v>
       </c>
       <c r="B63" t="n">
-        <v>6.9034</v>
+        <v>2.71315</v>
       </c>
       <c r="C63" t="n">
-        <v>6903.4</v>
+        <v>2713.15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92262</v>
+        <v>1.93174</v>
       </c>
       <c r="B64" t="n">
-        <v>6.85653</v>
+        <v>2.71654</v>
       </c>
       <c r="C64" t="n">
-        <v>6856.53</v>
+        <v>2716.54</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95347</v>
+        <v>1.96271</v>
       </c>
       <c r="B65" t="n">
-        <v>6.808350000000001</v>
+        <v>2.71986</v>
       </c>
       <c r="C65" t="n">
-        <v>6808.35</v>
+        <v>2719.86</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.9846</v>
+        <v>1.99367</v>
       </c>
       <c r="B66" t="n">
-        <v>6.7578</v>
+        <v>2.7231</v>
       </c>
       <c r="C66" t="n">
-        <v>6757.8</v>
+        <v>2723.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01565</v>
+        <v>2.02438</v>
       </c>
       <c r="B67" t="n">
-        <v>6.705310000000001</v>
+        <v>2.72629</v>
       </c>
       <c r="C67" t="n">
-        <v>6705.31</v>
+        <v>2726.29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04637</v>
+        <v>2.05493</v>
       </c>
       <c r="B68" t="n">
-        <v>6.65117</v>
+        <v>2.72942</v>
       </c>
       <c r="C68" t="n">
-        <v>6651.17</v>
+        <v>2729.42</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07753</v>
+        <v>2.08549</v>
       </c>
       <c r="B69" t="n">
-        <v>6.59425</v>
+        <v>2.73249</v>
       </c>
       <c r="C69" t="n">
-        <v>6594.25</v>
+        <v>2732.49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10842</v>
+        <v>2.11604</v>
       </c>
       <c r="B70" t="n">
-        <v>6.5361</v>
+        <v>2.7355</v>
       </c>
       <c r="C70" t="n">
-        <v>6536.1</v>
+        <v>2735.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13958</v>
+        <v>2.1466</v>
       </c>
       <c r="B71" t="n">
-        <v>6.47508</v>
+        <v>2.73845</v>
       </c>
       <c r="C71" t="n">
-        <v>6475.08</v>
+        <v>2738.45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17038</v>
+        <v>2.17715</v>
       </c>
       <c r="B72" t="n">
-        <v>6.41291</v>
+        <v>2.74133</v>
       </c>
       <c r="C72" t="n">
-        <v>6412.91</v>
+        <v>2741.33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20163</v>
+        <v>2.20771</v>
       </c>
       <c r="B73" t="n">
-        <v>6.34843</v>
+        <v>2.74416</v>
       </c>
       <c r="C73" t="n">
-        <v>6348.43</v>
+        <v>2744.16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23248</v>
+        <v>2.23826</v>
       </c>
       <c r="B74" t="n">
-        <v>6.28261</v>
+        <v>2.74694</v>
       </c>
       <c r="C74" t="n">
-        <v>6282.61</v>
+        <v>2746.94</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26347</v>
+        <v>2.26882</v>
       </c>
       <c r="B75" t="n">
-        <v>6.21509</v>
+        <v>2.74965</v>
       </c>
       <c r="C75" t="n">
-        <v>6215.09</v>
+        <v>2749.65</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29467</v>
+        <v>2.29937</v>
       </c>
       <c r="B76" t="n">
-        <v>6.146140000000001</v>
+        <v>2.75232</v>
       </c>
       <c r="C76" t="n">
-        <v>6146.14</v>
+        <v>2752.32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32545</v>
+        <v>2.33029</v>
       </c>
       <c r="B77" t="n">
-        <v>6.07569</v>
+        <v>2.75496</v>
       </c>
       <c r="C77" t="n">
-        <v>6075.69</v>
+        <v>2754.96</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35657</v>
+        <v>2.36186</v>
       </c>
       <c r="B78" t="n">
-        <v>6.003810000000001</v>
+        <v>2.7576</v>
       </c>
       <c r="C78" t="n">
-        <v>6003.81</v>
+        <v>2757.6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38756</v>
+        <v>2.39344</v>
       </c>
       <c r="B79" t="n">
-        <v>5.93112</v>
+        <v>2.76021</v>
       </c>
       <c r="C79" t="n">
-        <v>5931.12</v>
+        <v>2760.21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41858</v>
+        <v>2.42501</v>
       </c>
       <c r="B80" t="n">
-        <v>5.856380000000001</v>
+        <v>2.76275</v>
       </c>
       <c r="C80" t="n">
-        <v>5856.38</v>
+        <v>2762.75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44956</v>
+        <v>2.45658</v>
       </c>
       <c r="B81" t="n">
-        <v>5.78166</v>
+        <v>2.76524</v>
       </c>
       <c r="C81" t="n">
-        <v>5781.66</v>
+        <v>2765.24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47943</v>
+        <v>2.48815</v>
       </c>
       <c r="B82" t="n">
-        <v>5.70829</v>
+        <v>2.76768</v>
       </c>
       <c r="C82" t="n">
-        <v>5708.29</v>
+        <v>2767.68</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51032</v>
+        <v>2.51973</v>
       </c>
       <c r="B83" t="n">
-        <v>5.63288</v>
+        <v>2.77007</v>
       </c>
       <c r="C83" t="n">
-        <v>5632.88</v>
+        <v>2770.07</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54232</v>
+        <v>2.5513</v>
       </c>
       <c r="B84" t="n">
-        <v>5.55362</v>
+        <v>2.77241</v>
       </c>
       <c r="C84" t="n">
-        <v>5553.62</v>
+        <v>2772.41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57401</v>
+        <v>2.58287</v>
       </c>
       <c r="B85" t="n">
-        <v>5.476109999999999</v>
+        <v>2.77469</v>
       </c>
       <c r="C85" t="n">
-        <v>5476.11</v>
+        <v>2774.69</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60441</v>
+        <v>2.61445</v>
       </c>
       <c r="B86" t="n">
-        <v>5.40008</v>
+        <v>2.77692</v>
       </c>
       <c r="C86" t="n">
-        <v>5400.08</v>
+        <v>2776.92</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63481</v>
+        <v>2.6458</v>
       </c>
       <c r="B87" t="n">
-        <v>5.32591</v>
+        <v>2.77909</v>
       </c>
       <c r="C87" t="n">
-        <v>5325.91</v>
+        <v>2779.09</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66384</v>
+        <v>2.67652</v>
       </c>
       <c r="B88" t="n">
-        <v>5.25337</v>
+        <v>2.78124</v>
       </c>
       <c r="C88" t="n">
-        <v>5253.37</v>
+        <v>2781.24</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69676</v>
+        <v>2.70723</v>
       </c>
       <c r="B89" t="n">
-        <v>5.17241</v>
+        <v>2.78332</v>
       </c>
       <c r="C89" t="n">
-        <v>5172.41</v>
+        <v>2783.32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72891</v>
+        <v>2.73796</v>
       </c>
       <c r="B90" t="n">
-        <v>5.09363</v>
+        <v>2.78537</v>
       </c>
       <c r="C90" t="n">
-        <v>5093.63</v>
+        <v>2785.37</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75999</v>
+        <v>2.76868</v>
       </c>
       <c r="B91" t="n">
-        <v>5.016850000000001</v>
+        <v>2.78736</v>
       </c>
       <c r="C91" t="n">
-        <v>5016.85</v>
+        <v>2787.36</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79108</v>
+        <v>2.79939</v>
       </c>
       <c r="B92" t="n">
-        <v>4.94207</v>
+        <v>2.78931</v>
       </c>
       <c r="C92" t="n">
-        <v>4942.07</v>
+        <v>2789.31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82083</v>
+        <v>2.83011</v>
       </c>
       <c r="B93" t="n">
-        <v>4.86888</v>
+        <v>2.79122</v>
       </c>
       <c r="C93" t="n">
-        <v>4868.88</v>
+        <v>2791.22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85009</v>
+        <v>2.86084</v>
       </c>
       <c r="B94" t="n">
-        <v>4.79742</v>
+        <v>2.79306</v>
       </c>
       <c r="C94" t="n">
-        <v>4797.42</v>
+        <v>2793.06</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88129</v>
+        <v>2.89156</v>
       </c>
       <c r="B95" t="n">
-        <v>4.72361</v>
+        <v>2.79486</v>
       </c>
       <c r="C95" t="n">
-        <v>4723.61</v>
+        <v>2794.86</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91392</v>
+        <v>2.92227</v>
       </c>
       <c r="B96" t="n">
-        <v>4.64463</v>
+        <v>2.79663</v>
       </c>
       <c r="C96" t="n">
-        <v>4644.63</v>
+        <v>2796.63</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94592</v>
+        <v>2.953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.568090000000001</v>
+        <v>2.79834</v>
       </c>
       <c r="C97" t="n">
-        <v>4568.09</v>
+        <v>2798.34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97792</v>
+        <v>2.98372</v>
       </c>
       <c r="B98" t="n">
-        <v>4.49311</v>
+        <v>2.80001</v>
       </c>
       <c r="C98" t="n">
-        <v>4493.11</v>
+        <v>2800.01</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00877</v>
+        <v>3.01443</v>
       </c>
       <c r="B99" t="n">
-        <v>4.420170000000001</v>
+        <v>2.80164</v>
       </c>
       <c r="C99" t="n">
-        <v>4420.17</v>
+        <v>2801.64</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03864</v>
+        <v>3.04515</v>
       </c>
       <c r="B100" t="n">
-        <v>4.349</v>
+        <v>2.80322</v>
       </c>
       <c r="C100" t="n">
-        <v>4349</v>
+        <v>2803.22</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.0685</v>
+        <v>3.07588</v>
       </c>
       <c r="B101" t="n">
-        <v>4.27973</v>
+        <v>2.80477</v>
       </c>
       <c r="C101" t="n">
-        <v>4279.73</v>
+        <v>2804.77</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09837</v>
+        <v>3.10659</v>
       </c>
       <c r="B102" t="n">
-        <v>4.21255</v>
+        <v>2.80627</v>
       </c>
       <c r="C102" t="n">
-        <v>4212.55</v>
+        <v>2806.27</v>
       </c>
     </row>
   </sheetData>
